--- a/WebRoot/static/template/import/lead.xlsx
+++ b/WebRoot/static/template/import/lead.xlsx
@@ -122,10 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>市场活动获得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>花园北路14号环星大厦D座二楼1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,10 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>362350061@qq.com1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>研发中心8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,6 +155,14 @@
   </si>
   <si>
     <t>罗晓丽6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易线索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>362350061@qq.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -591,7 +591,8 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -673,13 +674,13 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F2">
         <v>18600884611</v>
@@ -688,13 +689,13 @@
         <v>18600884611</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I2">
         <v>18600884611</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
         <v>22</v>
@@ -721,10 +722,10 @@
         <v>100001</v>
       </c>
       <c r="S2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" t="s">
         <v>27</v>
-      </c>
-      <c r="T2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.15">
@@ -732,13 +733,13 @@
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F3">
         <v>18600884613</v>
@@ -747,13 +748,13 @@
         <v>18600884611</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I3">
         <v>18600884611</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s">
         <v>22</v>
@@ -780,14 +781,28 @@
         <v>100001</v>
       </c>
       <c r="S3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3" t="s">
         <v>27</v>
-      </c>
-      <c r="T3" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576">
+      <formula1>"交易线索,投资线索,保险投资,信托投资,信用合作,证券交易,市场活动"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:L1048576">
+      <formula1>"信用卡,借记卡"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:N1048576">
+      <formula1>"金融,化工,冶金矿产,能源,建筑、建材,医药、保养,礼品、工艺品、饰品,印刷,服饰、服装,传媒,电工电器,电子元器件,五金工具,仪表、仪器,其它"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:K1048576">
+      <formula1>"待跟进,跟进中,初期沟通,商务谈判,已注销"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1"/>
     <hyperlink ref="H3" r:id="rId2"/>
